--- a/study_case/data/7x24.xlsx
+++ b/study_case/data/7x24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Time</t>
   </si>
@@ -23,127 +23,226 @@
     <t>Content</t>
   </si>
   <si>
-    <t>16:45:24</t>
-  </si>
-  <si>
-    <t>【诚迈科技：两股东拟清仓减持不超过17.75%股份】诚迈科技14日晚公告，股东Scentshill Capital I 拟减持股份数量合计13131340股，即不超过公司目前总股本的16.41%；股东Scentshill Capital II拟减持股份数量合计1073860股，即不超过公司目前总股本的1.34%。</t>
-  </si>
-  <si>
-    <t>16:43:02</t>
-  </si>
-  <si>
-    <t>国家发改委就废止《电工进网作业许可证管理办法》公开征求意见。</t>
-  </si>
-  <si>
-    <t>16:42:38</t>
-  </si>
-  <si>
-    <t>【通化东宝：上半年净利5.37亿元 同比增30.78%】通化东宝14日晚公布2018半年报，公司上半年实现营业收入14.63亿元，同比增长23.85%；净利润5.37亿元，同比增长30.78%。每股收益0.26元。</t>
-  </si>
-  <si>
-    <t>16:41:52</t>
-  </si>
-  <si>
-    <t>双汇发展半年报：实现营业总收入237.32亿元，同比2017年上半年下降1.3%；实现归属于母公司股东的净利润23.85亿元，同比2017年上半年上升25.28%。</t>
-  </si>
-  <si>
-    <t>16:39:52</t>
-  </si>
-  <si>
-    <t>海天味业半年报：实现营业收入87.2亿，同比增长17.24%；实现净利润22.48亿，同比增长23.3%。</t>
-  </si>
-  <si>
-    <t>16:39:36</t>
-  </si>
-  <si>
-    <t>土耳其总统埃尔多安：已针对经济采取必要措施， 土耳其明显正在遭受经济打击。</t>
-  </si>
-  <si>
-    <t>16:38:27</t>
-  </si>
-  <si>
-    <t>【路透评英国失业率数据】英国第二季度经济有所回暖，6月三个月ILO失业率跌至1975年以来新低，生产率也有所攀升，第二季度每小时产出年率为1.5%，录得2016年末以来最大增幅，不过薪资增速放缓，6月三个月包括红利的平均工资年率跌至9个月低点，年度奖金发放时间的改变是部分原因；总而言之，在脱欧之前，英国经济表现可能会继续波折。</t>
-  </si>
-  <si>
-    <t>16:38:09</t>
-  </si>
-  <si>
-    <t>【福特旗下Autonomic与阿里云合作  计划在华推出车联云平台】据双方新闻稿，双方签署备忘录，计划将车联云平台(TMC)引入中国。该平台在中国由阿里云支持，将为车联网开发者提供标准化数据和基础设施，有助于帮助用户规划旅程、管理大规模的网约车车队、设计自动驾驶 汽车线路等；根据协议，双方计划帮助车企、车队管理者、开发者等加强车辆互联，提升消费者交通体验。（彭博）</t>
-  </si>
-  <si>
-    <t>16:35:59</t>
-  </si>
-  <si>
-    <t>【河南省郑州市惠济区发生一起猪O型口蹄疫疫情】农业农村部新闻办公室8月14日发布，河南省郑州市惠济区发生一起猪O型口蹄疫疫情。疫情发生后，当地按照有关预案和防治技术规范要求，切实做好疫情处置工作，已扑杀、无害化处理173头发病猪和同群猪。目前，该起疫情已得到有效控制。</t>
-  </si>
-  <si>
-    <t>16:32:13</t>
-  </si>
-  <si>
-    <t>【广电总局巩固对视听网站整治效果：对快手抖音等警告罚款】继上半年国家广播电视总局联合北京市新闻出版广电局对多家视听网站突出问题开展系列整治工作后，为进一步巩固治理工作成效，严肃问责效果，压实主体责任，遏制问题反弹，北京市文化市场行政执法总队按照国家广播电视总局要求，根据《互联网视听节目服务管理规定》，近日又分别对“快手”开办单位北京快手网络科技有限公司，“今日头条”“西瓜视频”开办单位北京字节跳动科技有限公司和“抖音”“火山小视频”开办单位北京微播视界科技有限公司存在的问题作出警告和罚款的行政处罚。（国家广电总局）</t>
-  </si>
-  <si>
-    <t>16:31:36</t>
-  </si>
-  <si>
-    <t>数据公布后，英镑兑美元GBP/USD短线上扬10余点，日内涨0.37%%，现报1.2811。 同时，英镑兑欧元延续涨势，日内涨0.4%。</t>
-  </si>
-  <si>
-    <t>16:30:16</t>
-  </si>
-  <si>
-    <t>英国7月失业率2.5%，前值 2.5%。英国7月失业金申请人数变动0.62万人，前值 0.78万人。英国6月三个月ILO失业率4%，预期 4.2%，前值 4.2%。注：英国6月三个月ILO失业率跌至1975年以来新低。</t>
-  </si>
-  <si>
-    <t>16:29:55</t>
-  </si>
-  <si>
-    <t>【基因测序公司诺禾致源肿瘤试剂盒获批 着手A股IPO】第二个肿瘤用药基因检测试剂盒获批。8月13日，诺禾致源开发的肿瘤用药基因检测试剂盒获得国家食药总局上市批准。诺禾致源以科研服务起家，计划今年三季度提交A股招股书。（财新）</t>
-  </si>
-  <si>
-    <t>16:29:32</t>
-  </si>
-  <si>
-    <t>【深圳731房产调控补充细则出炉】8月14日，深圳市规划和国土资源委员会发布关于贯彻落实市政府房地产调控政策的通知。其中，7月31日（不含7月31日）后，各类用地上建设的商务公寓一律只租不售且不得改变用途，但具备以下情形之一的除外，包括7月31日（含7月31日）前更新单元规划已经批准（含规划修改或者调整情形）的，批准的更新单元规划中确定的商务公寓等。</t>
-  </si>
-  <si>
-    <t>16:25:49</t>
-  </si>
-  <si>
-    <t>【国祯环保：上半年净利1.39亿元 同比增1.29倍】国祯环保14日晚公布2018半年报，公司上半年实现营业收入15.76亿元，同比增长76.52%；净利润1.39亿元，同比增长129.4%。每股收益0.26元。上半年公司取得经营类合同27个，合同金额11.3亿元，取得投资类项目7个，涉及投资金额37.4亿元。</t>
-  </si>
-  <si>
-    <t>16:22:56</t>
-  </si>
-  <si>
-    <t>【神马股份：上半年净利同比增6.56倍 多家险企现身前十股东名单】神马股份14日晚公布2018半年报，上半年公司实现营业收入57.22亿元，同比增长2.61%；净利润3.79亿元，同比增长655.60%。每股收益0.86元。报告期内，工业丝和帘子布销售价格稳步上涨，切片价格继续保持高位，公司经济效益大幅提高。股东方面，泰康人寿、平安财险、众安在线财险等多家险企新晋前十股东名单。</t>
-  </si>
-  <si>
-    <t>16:18:02</t>
-  </si>
-  <si>
-    <t>【红杉资本中国联手京东募集60亿美元，成立新投资基金】消息人士称，红杉资本中国正在与一个国有风险资本基金以及电商巨头京东联手募集最高400亿元人民币(58.1亿美元)，成立一家新的投资公司。投资公司将侧重于对处于晚期的科技企业进行投资。（路透）</t>
-  </si>
-  <si>
-    <t>16:17:51</t>
-  </si>
-  <si>
-    <t>16:13:30</t>
-  </si>
-  <si>
-    <t>截至港股收盘，港股通（沪）每日额度420亿元剩余438.23亿元，占比104%；港股通（深）每日额度420亿元剩余427.85亿元，占比101%。</t>
-  </si>
-  <si>
-    <t>16:12:39</t>
-  </si>
-  <si>
-    <t>创维数字：上半年实现业务收入35.49亿，同比增长3.29%；实现净利润1.62亿，同比增长198.53%。</t>
-  </si>
-  <si>
-    <t>16:10:49</t>
-  </si>
-  <si>
-    <t>香港恒生指数收盘下跌0.7%，报27,752.93。</t>
+    <t>16:04:32</t>
+  </si>
+  <si>
+    <t>【外汇局严打非法向境外转移资产等行为 最高罚款842万】国家外汇管理局深入贯彻落实十九大精神和党中央、国务院工作部署，紧紧围绕服务实体经济、防控金融风险、深化金融改革三项任务，加强外汇市场监管，对各类外汇违法违规行为保持高压态势，不断加大处罚力度，严厉打击虚假、欺骗性交易和非法套利等资金“脱实向虚”行为，维护健康良性市场秩序。http://t.cn/RkveA1o</t>
+  </si>
+  <si>
+    <t>16:03:12</t>
+  </si>
+  <si>
+    <t>挪威央行：委员会评估认为，2018年9月会议上大概率加息。</t>
+  </si>
+  <si>
+    <t>16:03:03</t>
+  </si>
+  <si>
+    <t>挪威央行：维持利率在0.50%不变。</t>
+  </si>
+  <si>
+    <t>15:58:45</t>
+  </si>
+  <si>
+    <t>【梅雁吉祥：上半年净利同比下降逾9成】梅雁吉祥披露半年报，公司2018年上半年实现营业收入9434.62万元，同比下降18.67%；净利润676.61万元，同比下降93.84%。除降雨量减少导致的营业收入减少外，净利润减少的主要原因是非经常性损益差异所导致。</t>
+  </si>
+  <si>
+    <t>15:58:13</t>
+  </si>
+  <si>
+    <t>印度卢比兑美元一度跌0.7%，触及纪录新低70.3950卢比。</t>
+  </si>
+  <si>
+    <t>15:54:13</t>
+  </si>
+  <si>
+    <t>【农业农村部：黑龙江调往河南郑州的生猪确诊发生非洲猪瘟，该起疫情已得到有效控制】8月14日，河南省郑州市经济开发区某食品公司屠宰场的一车生猪发生不明原因死亡，共260头，发病30头，死亡30头，产地检疫证明显示生猪来自黑龙江省佳木斯市汤原县鹤立镇交易市场。8月16日凌晨，经中国动物卫生与流行病学中心国家外来动物疫病研究中心确诊，该起疫情为非洲猪瘟疫情。疫情发生后，农业农村部立即派出督导组分赴河南、黑龙江。河南已按照要求，启动应急响应机制，采取封锁、扑杀、无害化处理、消毒等处置措施，禁止所有生猪及易感动物和产品运入或流出封锁区。黑龙江省已开展排查和流行病学调查工作。目前，该起疫情已得到有效控制。</t>
+  </si>
+  <si>
+    <t>15:48:10</t>
+  </si>
+  <si>
+    <t>【海南：将尽快出台房地产市场调控长效机制】海南省住建厅相关负责人表示，将尽快出台房地产市场调控长效机制，使房地产市场调控由政府行政手段转向利用法制化、经济化、市场化手段进行调控，探索建立符合海南建设自由贸易试验区，逐步探索、稳步推进中国特色自贸港建设要求的海南特色住房制度，争创房地产调控中国特色社会主义生动范例，为全国创造可复制可推广的经验。（海南日报）</t>
+  </si>
+  <si>
+    <t>15:43:26</t>
+  </si>
+  <si>
+    <t>【福特子公司将与阿里云合作 在华推出车联云平台】福特智能出行子公司Autonomic与阿里巴巴旗下阿里云日前签署合作备忘录，计划在中国推出由Autonomic打造的车联云平台(TMC)，为中国消费者提供更优化的车联网和出行解决方案。（中国网）</t>
+  </si>
+  <si>
+    <t>15:40:37</t>
+  </si>
+  <si>
+    <t>黑龙江省畜牧兽医局日前发布《关于开展非洲猪瘟防治专项督导检查工作的通知》，自8月15日起，将派出专项督导组对各地进行集中督导检查。</t>
+  </si>
+  <si>
+    <t>15:39:14</t>
+  </si>
+  <si>
+    <t>IMAX CHINA在香港跌幅一度扩大至16%。</t>
+  </si>
+  <si>
+    <t>15:38:35</t>
+  </si>
+  <si>
+    <t>中原环保：公司被纳入国企改革“双百企业”。</t>
+  </si>
+  <si>
+    <t>15:38:23</t>
+  </si>
+  <si>
+    <t>中国恒大在香港一度涨8%。</t>
+  </si>
+  <si>
+    <t>15:38:15</t>
+  </si>
+  <si>
+    <t>【路透：央行限制银行通过上海自贸区FTU向境外存/拆放人民币 提高做空成本】路透援引两位消息人士周四透露，中国央行上海总部今日通知，鉴于近期离岸人民币价格波动较大，即日起，上海自贸区分账核算单元（简称FTU）的三个净流出公式暂不执行，各银行不得通过同业往来账户向境外存放或拆放人民币资金，同时不得影响实体经济真实的跨境资金收付需求。一消息人士表示，此举意在收紧离岸人民币流动性，增加做空的成本。</t>
+  </si>
+  <si>
+    <t>15:35:59</t>
+  </si>
+  <si>
+    <t>【森马服饰：未投资涉嫌“抄袭谷歌”的红芯浏览器】红芯国产浏览器被爆出涉嫌造假，以谷歌浏览器Chrome内核换皮打造成“自主可控的国产浏览器”。并且同时有媒体报道称，森马服饰为该项目C轮2.5亿元投资参与方。 新浪财经向森马服饰核实时，森马服饰称并未参与该项目投资。</t>
+  </si>
+  <si>
+    <t>15:33:07</t>
+  </si>
+  <si>
+    <t>【中国铁塔与地震台网中心开展战略合作】8月15日，中国铁塔与中国地震台网中心签署战略合作框架协议，加快推动国家地震烈度速报与预警工程项目建设，并在国家防震减灾、保障国家基础通信设施、信息化解决方案以及联合技术创新等领域进一步携手探索。</t>
+  </si>
+  <si>
+    <t>15:29:20</t>
+  </si>
+  <si>
+    <t>【比亚迪完成泰国最大规模电动车交付 签1000台电动车合作协议】8月16日，比亚迪101辆e6在曼谷成功交付，刷新泰国最大规模电动车交付纪录。当天，泰方还与比亚迪签署了创造海外地区最大规模纪录的1000台电动车合作协议。</t>
+  </si>
+  <si>
+    <t>15:26:35</t>
+  </si>
+  <si>
+    <t>​【郑州双汇因非洲猪瘟疫情被下封锁令 双汇发展回应：配合封锁】一则郑州市政府关于封锁非洲猪瘟疫区的命令在网上流传，称郑州双汇屠宰厂从黑龙江运到的生猪确认感染非洲猪瘟，决定对厂区划定疫点并实施封锁6周。记者致电双汇发展投资者关系部，对方表示正在全力配合郑州市政府安排疫情的防疫防控工作，郑州双汇的订单已经转到其它工厂生产。（澎湃）</t>
+  </si>
+  <si>
+    <t>15:26:30</t>
+  </si>
+  <si>
+    <t>【双汇回应网传疫情为真实情况 对公司生产经营影响不大】对于网传郑州双汇因非洲猪瘟被划定疫点并实施封锁的消息，双汇集团工作人员回应称，上述消息内容属实，郑州双汇已按照市政府规定对疫区实行封锁，厂内相关订单生产也已转移到其他厂区，对公司生产经营未形成明显影响。（证券时报）</t>
+  </si>
+  <si>
+    <t>15:23:46</t>
+  </si>
+  <si>
+    <t>【华泰证券：今年发布A股回购预案的公司数量创下历史纪录】华泰证券报告称，今年迄今已有713家公司发布A股回购计划，数量超越以往历年全年水平；计划涉及的回购金额上限规模合计达到607亿元。其中美的集团40亿元股票回购计划规模居于今年首位，迄今已回购12.5亿元。</t>
+  </si>
+  <si>
+    <t>15:19:22</t>
+  </si>
+  <si>
+    <t>【载有美国大豆的货船已在大连港卸货完毕】据汤森路透Eikon周四航运数据，一艘载有约7万吨美国大豆的船只已经在中国大连港卸货完毕，船货价值至少2,300万美元。数据显示Peak Pegasus号货轮吃水比例为47%，意味着其已经卸货完毕。 中国储备粮管理集团周一证实，将会为这批船货支付25%的进口关税，相当于约600万美元。（路透）</t>
+  </si>
+  <si>
+    <t>15:13:41</t>
+  </si>
+  <si>
+    <t>【中信证券：应对美联储加息、人民币贬值等 加息是占优选择】中信证券固收分析师明明认为，应对美联储加息和人民币汇率贬值的方式有很多，加息是个占优选择。明明等在报告中指出，近期人民币汇率有进一步贬值的压力，关键关口就在眼前，在降准和公开市场投放后，市场对稳健货币政策的下一步预期自然走到了价格型工具的面前。面对美联储9月份的加息，中国央行出于保汇率和稳经济的考虑，大概率会选择跟随加息。</t>
+  </si>
+  <si>
+    <t>15:02:24</t>
+  </si>
+  <si>
+    <t>网传郑州双汇因非洲猪瘟疫情被下封锁令，双汇发展回应：目前尚未得到相关信息。</t>
+  </si>
+  <si>
+    <t>15:02:22</t>
+  </si>
+  <si>
+    <t>【网传郑州双汇因非洲猪瘟疫情被下封锁令 双汇集团人员：目前尚未得到相关信息】8月16日下午，一则郑州市政府关于封锁非洲猪瘟疫区的命令在网上流传，称郑州双汇屠宰厂从黑龙江运到的生猪确认感染非洲猪瘟，决定对厂区划定疫点并实施封锁6周。对此，双汇集团人员回应称，目前尚未得到相关信息，将待核实后予以回复。（证券时报）注：双汇发展午后迅速跌停，振幅达11.45%。</t>
+  </si>
+  <si>
+    <t>15:02:02</t>
+  </si>
+  <si>
+    <t>期市收盘，PTA涨4.75%再创新高， 焦炭涨3.6%至2567元/吨，刷新2011年8月以来高点。；燃油跌4.93%，橡胶跌4.11%，沪锌、原油、玻璃跌逾3%，白银、沪铜、沪铅、沥青、动力煤、铁矿石跌逾2%。</t>
+  </si>
+  <si>
+    <t>15:01:23</t>
+  </si>
+  <si>
+    <t>欧股开盘，欧洲Stoxx600上涨0.3%。</t>
+  </si>
+  <si>
+    <t>15:01:02</t>
+  </si>
+  <si>
+    <t>【收评：两市宽幅震荡沪指跌0.66% 天津自贸区领涨】截至收盘，沪指报2705.19，跌0.66%；深指报8500.42，跌0.94%；创指报1463.87，跌0.99%从。盘面上看，天津自贸区、券商、二胎概念居板块涨幅榜前列，猪肉、高送转、自由贸易港居板块跌幅榜前列。 http://t.cn/RkPZ0uA</t>
+  </si>
+  <si>
+    <t>14:56:15</t>
+  </si>
+  <si>
+    <t>【新华社解读养老目标基金：买不买怎么买，能否“万无一失”？】从嘉实基金、华夏基金等了解到，目前相关产品的准备工作正在积极推进，具体发行时间还未确定。腾讯、蚂蚁财富和京东金融均表示，正在积极推进首批养老目标基金在各自平台的销售对接工作，未来14只养老目标基金发售时，这些平台将同步销售。业内专家说，按照制度设计，这类基金在公募基金中表现会更加稳健，但并不意味着投资“零风险”。业界认为，养老目标基金进入市场是我国探索养老第三支柱的重要一步，未来会成为A股市场重要的基金品种，渐进式地为市场带来稳定长期资金，转变人们的养老投资理念。</t>
+  </si>
+  <si>
+    <t>14:53:41</t>
+  </si>
+  <si>
+    <t>在岸人民币兑美元再度失守6.90关口至6.9014，跌约333点；此前一度收复6.88关口。</t>
+  </si>
+  <si>
+    <t>14:51:05</t>
+  </si>
+  <si>
+    <t>【深圳十部门联合治理房地产市场乱象 】深圳市规划和国土资源委员会、市场和质量监督管理委员会、住房和建设局等十部门近日联合发布文件，提出从7月至12月在全市开展治理房地产市场乱象专项行动，重点打击投机炒房行为、房企违法违规行为、房地产中介违法违规行为和房地产虚假广告等。（新华社）</t>
+  </si>
+  <si>
+    <t>14:48:48</t>
+  </si>
+  <si>
+    <t>土耳其里拉升破5.7兑1美元，涨幅约4%。</t>
+  </si>
+  <si>
+    <t>14:47:15</t>
+  </si>
+  <si>
+    <t>【湖北9月起将定期统一发布房地产市场信息】自今年9月起，湖北省将建立房地产市场信息定期发布制度。湖北省住建厅和湖北省国土厅发出通知要求，各市、州、县须在每月15日上午12时前，定期发布本地区上月房地产市场信息。发布的信息内容应包括：新建商品房预售许可套数及面积，住房租赁企业及租赁项目名单，房地产开发用地供应宗数和面积；新建商品房、存量房销售套数和面积以及已批准预售但尚未售出的商品住房的套数和面积。 （新华社）</t>
+  </si>
+  <si>
+    <t>14:43:48</t>
+  </si>
+  <si>
+    <t>【恒大与中科院首批合作项目签约，涉超级计算机等6大前沿科技领域】8月16日，恒大集团与中国科学院在北京举行首批合作项目签约仪式，首批签约合作项目共六个，总投资额16.47亿。据了解，该六个合作项目分别为“中科恒大”超级计算机、人工智能、石墨烯、无人机、手术机器人以及“大健康海云工程”，总估值约46亿，均代表当今世界最前沿的科技发展趋势。其中，“中科恒大”超级计算机研发完成后，将成为世界超级计算机TOP500榜第一。此外，六个合作项目中有五个是恒大为第一大股东，一个为第二大股东。</t>
+  </si>
+  <si>
+    <t>14:40:17</t>
+  </si>
+  <si>
+    <t>雄安设计板块尾盘走强，龙头建科院冲击涨停，设计总院、启迪设计、中设股份小幅跟涨。</t>
+  </si>
+  <si>
+    <t>14:36:17</t>
+  </si>
+  <si>
+    <t>【猪肉股午后集体跳水 双汇发展跌停】天邦股份跌逾9%，牧原股份跌逾6%，正邦科技跌逾7%。此外港股万州国际跳水，一度跌逾10%。</t>
+  </si>
+  <si>
+    <t>14:35:22</t>
+  </si>
+  <si>
+    <t>天津自贸区板块尾盘发力，津劝业强势封板，天津松江随后涨停，天保基建、海泰发展跟涨。</t>
+  </si>
+  <si>
+    <t>14:35:01</t>
+  </si>
+  <si>
+    <t>【中国移动逾30亿集采电力电缆，通鼎互联意外成最大赢家】近日，中国移动2018年至2019年电力电缆产品集中采购项目开标。本项目采购内容为标段一（通信用电力电缆）6991万米；标段二（建筑用380V交联电缆）299万米。从投标报价来看，该项目中标金额达31亿元。中标企业包括通鼎互联、江苏亨通线缆科技、江苏俊知技术、中天科技装备电缆、江苏亨通电力电缆、宝胜科技创新、江苏中利集团、宁波东方电缆8家企业。其中通鼎互联以28.7亿元报价中标第一标段40%份额。</t>
+  </si>
+  <si>
+    <t>14:33:47</t>
+  </si>
+  <si>
+    <t>【17富宇02（143296）盘中临时停牌】17富宇02（143296）今日下午交易出现异常波动，跌幅22.22%。上交所决定，自14时03分开始暂停17富宇02（143296）交易，自14时33分起恢复交易。恢复交易后，如该债券交易再次出现异常波动，本所可实施第二次盘中临时停牌，停牌时间持续至今日14时55分。</t>
   </si>
 </sst>
 </file>
@@ -492,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -711,10 +810,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -722,10 +821,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -733,10 +832,186 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/study_case/data/7x24.xlsx
+++ b/study_case/data/7x24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Time</t>
   </si>
@@ -23,226 +23,124 @@
     <t>Content</t>
   </si>
   <si>
-    <t>16:04:32</t>
-  </si>
-  <si>
-    <t>【外汇局严打非法向境外转移资产等行为 最高罚款842万】国家外汇管理局深入贯彻落实十九大精神和党中央、国务院工作部署，紧紧围绕服务实体经济、防控金融风险、深化金融改革三项任务，加强外汇市场监管，对各类外汇违法违规行为保持高压态势，不断加大处罚力度，严厉打击虚假、欺骗性交易和非法套利等资金“脱实向虚”行为，维护健康良性市场秩序。http://t.cn/RkveA1o</t>
-  </si>
-  <si>
-    <t>16:03:12</t>
-  </si>
-  <si>
-    <t>挪威央行：委员会评估认为，2018年9月会议上大概率加息。</t>
-  </si>
-  <si>
-    <t>16:03:03</t>
-  </si>
-  <si>
-    <t>挪威央行：维持利率在0.50%不变。</t>
-  </si>
-  <si>
-    <t>15:58:45</t>
-  </si>
-  <si>
-    <t>【梅雁吉祥：上半年净利同比下降逾9成】梅雁吉祥披露半年报，公司2018年上半年实现营业收入9434.62万元，同比下降18.67%；净利润676.61万元，同比下降93.84%。除降雨量减少导致的营业收入减少外，净利润减少的主要原因是非经常性损益差异所导致。</t>
-  </si>
-  <si>
-    <t>15:58:13</t>
-  </si>
-  <si>
-    <t>印度卢比兑美元一度跌0.7%，触及纪录新低70.3950卢比。</t>
-  </si>
-  <si>
-    <t>15:54:13</t>
-  </si>
-  <si>
-    <t>【农业农村部：黑龙江调往河南郑州的生猪确诊发生非洲猪瘟，该起疫情已得到有效控制】8月14日，河南省郑州市经济开发区某食品公司屠宰场的一车生猪发生不明原因死亡，共260头，发病30头，死亡30头，产地检疫证明显示生猪来自黑龙江省佳木斯市汤原县鹤立镇交易市场。8月16日凌晨，经中国动物卫生与流行病学中心国家外来动物疫病研究中心确诊，该起疫情为非洲猪瘟疫情。疫情发生后，农业农村部立即派出督导组分赴河南、黑龙江。河南已按照要求，启动应急响应机制，采取封锁、扑杀、无害化处理、消毒等处置措施，禁止所有生猪及易感动物和产品运入或流出封锁区。黑龙江省已开展排查和流行病学调查工作。目前，该起疫情已得到有效控制。</t>
-  </si>
-  <si>
-    <t>15:48:10</t>
-  </si>
-  <si>
-    <t>【海南：将尽快出台房地产市场调控长效机制】海南省住建厅相关负责人表示，将尽快出台房地产市场调控长效机制，使房地产市场调控由政府行政手段转向利用法制化、经济化、市场化手段进行调控，探索建立符合海南建设自由贸易试验区，逐步探索、稳步推进中国特色自贸港建设要求的海南特色住房制度，争创房地产调控中国特色社会主义生动范例，为全国创造可复制可推广的经验。（海南日报）</t>
-  </si>
-  <si>
-    <t>15:43:26</t>
-  </si>
-  <si>
-    <t>【福特子公司将与阿里云合作 在华推出车联云平台】福特智能出行子公司Autonomic与阿里巴巴旗下阿里云日前签署合作备忘录，计划在中国推出由Autonomic打造的车联云平台(TMC)，为中国消费者提供更优化的车联网和出行解决方案。（中国网）</t>
-  </si>
-  <si>
-    <t>15:40:37</t>
-  </si>
-  <si>
-    <t>黑龙江省畜牧兽医局日前发布《关于开展非洲猪瘟防治专项督导检查工作的通知》，自8月15日起，将派出专项督导组对各地进行集中督导检查。</t>
-  </si>
-  <si>
-    <t>15:39:14</t>
-  </si>
-  <si>
-    <t>IMAX CHINA在香港跌幅一度扩大至16%。</t>
-  </si>
-  <si>
-    <t>15:38:35</t>
-  </si>
-  <si>
-    <t>中原环保：公司被纳入国企改革“双百企业”。</t>
-  </si>
-  <si>
-    <t>15:38:23</t>
-  </si>
-  <si>
-    <t>中国恒大在香港一度涨8%。</t>
-  </si>
-  <si>
-    <t>15:38:15</t>
-  </si>
-  <si>
-    <t>【路透：央行限制银行通过上海自贸区FTU向境外存/拆放人民币 提高做空成本】路透援引两位消息人士周四透露，中国央行上海总部今日通知，鉴于近期离岸人民币价格波动较大，即日起，上海自贸区分账核算单元（简称FTU）的三个净流出公式暂不执行，各银行不得通过同业往来账户向境外存放或拆放人民币资金，同时不得影响实体经济真实的跨境资金收付需求。一消息人士表示，此举意在收紧离岸人民币流动性，增加做空的成本。</t>
-  </si>
-  <si>
-    <t>15:35:59</t>
-  </si>
-  <si>
-    <t>【森马服饰：未投资涉嫌“抄袭谷歌”的红芯浏览器】红芯国产浏览器被爆出涉嫌造假，以谷歌浏览器Chrome内核换皮打造成“自主可控的国产浏览器”。并且同时有媒体报道称，森马服饰为该项目C轮2.5亿元投资参与方。 新浪财经向森马服饰核实时，森马服饰称并未参与该项目投资。</t>
-  </si>
-  <si>
-    <t>15:33:07</t>
-  </si>
-  <si>
-    <t>【中国铁塔与地震台网中心开展战略合作】8月15日，中国铁塔与中国地震台网中心签署战略合作框架协议，加快推动国家地震烈度速报与预警工程项目建设，并在国家防震减灾、保障国家基础通信设施、信息化解决方案以及联合技术创新等领域进一步携手探索。</t>
-  </si>
-  <si>
-    <t>15:29:20</t>
-  </si>
-  <si>
-    <t>【比亚迪完成泰国最大规模电动车交付 签1000台电动车合作协议】8月16日，比亚迪101辆e6在曼谷成功交付，刷新泰国最大规模电动车交付纪录。当天，泰方还与比亚迪签署了创造海外地区最大规模纪录的1000台电动车合作协议。</t>
-  </si>
-  <si>
-    <t>15:26:35</t>
-  </si>
-  <si>
-    <t>​【郑州双汇因非洲猪瘟疫情被下封锁令 双汇发展回应：配合封锁】一则郑州市政府关于封锁非洲猪瘟疫区的命令在网上流传，称郑州双汇屠宰厂从黑龙江运到的生猪确认感染非洲猪瘟，决定对厂区划定疫点并实施封锁6周。记者致电双汇发展投资者关系部，对方表示正在全力配合郑州市政府安排疫情的防疫防控工作，郑州双汇的订单已经转到其它工厂生产。（澎湃）</t>
-  </si>
-  <si>
-    <t>15:26:30</t>
-  </si>
-  <si>
-    <t>【双汇回应网传疫情为真实情况 对公司生产经营影响不大】对于网传郑州双汇因非洲猪瘟被划定疫点并实施封锁的消息，双汇集团工作人员回应称，上述消息内容属实，郑州双汇已按照市政府规定对疫区实行封锁，厂内相关订单生产也已转移到其他厂区，对公司生产经营未形成明显影响。（证券时报）</t>
-  </si>
-  <si>
-    <t>15:23:46</t>
-  </si>
-  <si>
-    <t>【华泰证券：今年发布A股回购预案的公司数量创下历史纪录】华泰证券报告称，今年迄今已有713家公司发布A股回购计划，数量超越以往历年全年水平；计划涉及的回购金额上限规模合计达到607亿元。其中美的集团40亿元股票回购计划规模居于今年首位，迄今已回购12.5亿元。</t>
-  </si>
-  <si>
-    <t>15:19:22</t>
-  </si>
-  <si>
-    <t>【载有美国大豆的货船已在大连港卸货完毕】据汤森路透Eikon周四航运数据，一艘载有约7万吨美国大豆的船只已经在中国大连港卸货完毕，船货价值至少2,300万美元。数据显示Peak Pegasus号货轮吃水比例为47%，意味着其已经卸货完毕。 中国储备粮管理集团周一证实，将会为这批船货支付25%的进口关税，相当于约600万美元。（路透）</t>
-  </si>
-  <si>
-    <t>15:13:41</t>
-  </si>
-  <si>
-    <t>【中信证券：应对美联储加息、人民币贬值等 加息是占优选择】中信证券固收分析师明明认为，应对美联储加息和人民币汇率贬值的方式有很多，加息是个占优选择。明明等在报告中指出，近期人民币汇率有进一步贬值的压力，关键关口就在眼前，在降准和公开市场投放后，市场对稳健货币政策的下一步预期自然走到了价格型工具的面前。面对美联储9月份的加息，中国央行出于保汇率和稳经济的考虑，大概率会选择跟随加息。</t>
-  </si>
-  <si>
-    <t>15:02:24</t>
-  </si>
-  <si>
-    <t>网传郑州双汇因非洲猪瘟疫情被下封锁令，双汇发展回应：目前尚未得到相关信息。</t>
-  </si>
-  <si>
-    <t>15:02:22</t>
-  </si>
-  <si>
-    <t>【网传郑州双汇因非洲猪瘟疫情被下封锁令 双汇集团人员：目前尚未得到相关信息】8月16日下午，一则郑州市政府关于封锁非洲猪瘟疫区的命令在网上流传，称郑州双汇屠宰厂从黑龙江运到的生猪确认感染非洲猪瘟，决定对厂区划定疫点并实施封锁6周。对此，双汇集团人员回应称，目前尚未得到相关信息，将待核实后予以回复。（证券时报）注：双汇发展午后迅速跌停，振幅达11.45%。</t>
-  </si>
-  <si>
-    <t>15:02:02</t>
-  </si>
-  <si>
-    <t>期市收盘，PTA涨4.75%再创新高， 焦炭涨3.6%至2567元/吨，刷新2011年8月以来高点。；燃油跌4.93%，橡胶跌4.11%，沪锌、原油、玻璃跌逾3%，白银、沪铜、沪铅、沥青、动力煤、铁矿石跌逾2%。</t>
-  </si>
-  <si>
-    <t>15:01:23</t>
-  </si>
-  <si>
-    <t>欧股开盘，欧洲Stoxx600上涨0.3%。</t>
-  </si>
-  <si>
-    <t>15:01:02</t>
-  </si>
-  <si>
-    <t>【收评：两市宽幅震荡沪指跌0.66% 天津自贸区领涨】截至收盘，沪指报2705.19，跌0.66%；深指报8500.42，跌0.94%；创指报1463.87，跌0.99%从。盘面上看，天津自贸区、券商、二胎概念居板块涨幅榜前列，猪肉、高送转、自由贸易港居板块跌幅榜前列。 http://t.cn/RkPZ0uA</t>
-  </si>
-  <si>
-    <t>14:56:15</t>
-  </si>
-  <si>
-    <t>【新华社解读养老目标基金：买不买怎么买，能否“万无一失”？】从嘉实基金、华夏基金等了解到，目前相关产品的准备工作正在积极推进，具体发行时间还未确定。腾讯、蚂蚁财富和京东金融均表示，正在积极推进首批养老目标基金在各自平台的销售对接工作，未来14只养老目标基金发售时，这些平台将同步销售。业内专家说，按照制度设计，这类基金在公募基金中表现会更加稳健，但并不意味着投资“零风险”。业界认为，养老目标基金进入市场是我国探索养老第三支柱的重要一步，未来会成为A股市场重要的基金品种，渐进式地为市场带来稳定长期资金，转变人们的养老投资理念。</t>
-  </si>
-  <si>
-    <t>14:53:41</t>
-  </si>
-  <si>
-    <t>在岸人民币兑美元再度失守6.90关口至6.9014，跌约333点；此前一度收复6.88关口。</t>
-  </si>
-  <si>
-    <t>14:51:05</t>
-  </si>
-  <si>
-    <t>【深圳十部门联合治理房地产市场乱象 】深圳市规划和国土资源委员会、市场和质量监督管理委员会、住房和建设局等十部门近日联合发布文件，提出从7月至12月在全市开展治理房地产市场乱象专项行动，重点打击投机炒房行为、房企违法违规行为、房地产中介违法违规行为和房地产虚假广告等。（新华社）</t>
-  </si>
-  <si>
-    <t>14:48:48</t>
-  </si>
-  <si>
-    <t>土耳其里拉升破5.7兑1美元，涨幅约4%。</t>
-  </si>
-  <si>
-    <t>14:47:15</t>
-  </si>
-  <si>
-    <t>【湖北9月起将定期统一发布房地产市场信息】自今年9月起，湖北省将建立房地产市场信息定期发布制度。湖北省住建厅和湖北省国土厅发出通知要求，各市、州、县须在每月15日上午12时前，定期发布本地区上月房地产市场信息。发布的信息内容应包括：新建商品房预售许可套数及面积，住房租赁企业及租赁项目名单，房地产开发用地供应宗数和面积；新建商品房、存量房销售套数和面积以及已批准预售但尚未售出的商品住房的套数和面积。 （新华社）</t>
-  </si>
-  <si>
-    <t>14:43:48</t>
-  </si>
-  <si>
-    <t>【恒大与中科院首批合作项目签约，涉超级计算机等6大前沿科技领域】8月16日，恒大集团与中国科学院在北京举行首批合作项目签约仪式，首批签约合作项目共六个，总投资额16.47亿。据了解，该六个合作项目分别为“中科恒大”超级计算机、人工智能、石墨烯、无人机、手术机器人以及“大健康海云工程”，总估值约46亿，均代表当今世界最前沿的科技发展趋势。其中，“中科恒大”超级计算机研发完成后，将成为世界超级计算机TOP500榜第一。此外，六个合作项目中有五个是恒大为第一大股东，一个为第二大股东。</t>
-  </si>
-  <si>
-    <t>14:40:17</t>
-  </si>
-  <si>
-    <t>雄安设计板块尾盘走强，龙头建科院冲击涨停，设计总院、启迪设计、中设股份小幅跟涨。</t>
-  </si>
-  <si>
-    <t>14:36:17</t>
-  </si>
-  <si>
-    <t>【猪肉股午后集体跳水 双汇发展跌停】天邦股份跌逾9%，牧原股份跌逾6%，正邦科技跌逾7%。此外港股万州国际跳水，一度跌逾10%。</t>
-  </si>
-  <si>
-    <t>14:35:22</t>
-  </si>
-  <si>
-    <t>天津自贸区板块尾盘发力，津劝业强势封板，天津松江随后涨停，天保基建、海泰发展跟涨。</t>
-  </si>
-  <si>
-    <t>14:35:01</t>
-  </si>
-  <si>
-    <t>【中国移动逾30亿集采电力电缆，通鼎互联意外成最大赢家】近日，中国移动2018年至2019年电力电缆产品集中采购项目开标。本项目采购内容为标段一（通信用电力电缆）6991万米；标段二（建筑用380V交联电缆）299万米。从投标报价来看，该项目中标金额达31亿元。中标企业包括通鼎互联、江苏亨通线缆科技、江苏俊知技术、中天科技装备电缆、江苏亨通电力电缆、宝胜科技创新、江苏中利集团、宁波东方电缆8家企业。其中通鼎互联以28.7亿元报价中标第一标段40%份额。</t>
-  </si>
-  <si>
-    <t>14:33:47</t>
-  </si>
-  <si>
-    <t>【17富宇02（143296）盘中临时停牌】17富宇02（143296）今日下午交易出现异常波动，跌幅22.22%。上交所决定，自14时03分开始暂停17富宇02（143296）交易，自14时33分起恢复交易。恢复交易后，如该债券交易再次出现异常波动，本所可实施第二次盘中临时停牌，停牌时间持续至今日14时55分。</t>
+    <t>09:43:54</t>
+  </si>
+  <si>
+    <t>券商板块异动拉升，西部证券大涨5%，南京证券、招商证券、中国银河、山西证券、东兴证券等个股均有拉升表现。</t>
+  </si>
+  <si>
+    <t>09:42:09</t>
+  </si>
+  <si>
+    <t>华润系集体上涨，华润燃气大涨近10%， 华润啤酒涨逾3%，华润电力涨2%。</t>
+  </si>
+  <si>
+    <t>09:36:10</t>
+  </si>
+  <si>
+    <t>新股开板：捷佳伟创打开一字涨停。</t>
+  </si>
+  <si>
+    <t>09:35:47</t>
+  </si>
+  <si>
+    <t>在岸人民币兑美元上涨0.29%，至6.8665。</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>【“希望白宫认识到中国市场的重要性”—伊利诺伊州各界人士对美国政府发动贸易战深表忧虑】位于伊利诺伊州的芝加哥是美国第三大城市，也是美国中西部地区的经济中心，以波音、麦当劳为代表的一批全球知名企业将总部设在此地。连日来，记者就中美贸易争端问题在芝加哥进行实地采访，切实感受到了当地各界人士对美国政府单方面挑起和升级贸易战的忧虑与不满。波音高级副总裁墨非表示，波音高度关注美中两国间的贸易争端，“我们正在积极同美国政府沟通，希望白宫认识到中国市场的重要性。”（人民日报）</t>
+  </si>
+  <si>
+    <t>09:31:36</t>
+  </si>
+  <si>
+    <t>【澳门金融机构分销认购50亿元粤港澳大湾区债券】工银澳门、澳门国际银行、中银澳门等澳门金融机构通过境内工商银行、中国银行、农业银行、建设银行，以结算代理模式分销认购了8月16日发行的粤港澳大湾区土地储备专项债券50亿元。这是首次由承销团成员将地方债分销给境外机构，也是境外机构首次参与地方债一级市场，实现了粤澳两地金融合作创新，极大促进了地方债投资主体多元化。（21）</t>
+  </si>
+  <si>
+    <t>09:31:22</t>
+  </si>
+  <si>
+    <t>【生鲜食材消费升级 中国冷链物流产业“热”起来 】年以来我国的冷链物流产业迅速发展。大笔资本涌入，布局从冷链仓库、干线运输到城市末端配送的各个环节，为消费升级和生鲜电商提供“保鲜”方案。 根据相关机构统计，目前我国的冷链物流市场年复合增速超过20%，预计到2020年底将达到约4700亿元的规模。中国物流与采购联合会秘书长崔忠付说，我国一方面要强化冷链基础设施的建设，另一方面要逐步建立冷链物流标准体系。特别是在食品冷链物流方面，形成行业准入门槛，提升行业运作水平。 （新华社）</t>
+  </si>
+  <si>
+    <t>09:28:36</t>
+  </si>
+  <si>
+    <t>住房租赁板块开盘大涨，市北高新涨停，东易日盛涨9%，三六五网、我爱我家、世联行纷纷大涨。</t>
+  </si>
+  <si>
+    <t>09:27:15</t>
+  </si>
+  <si>
+    <t>香港恒生指数高开0.22%，科技、电讯板块领涨。恒指成分股中，中国联通、华润电力高开超3%，腾讯控股、蒙牛乳业涨近2%；猪肉股万洲国际低开2.6%。</t>
+  </si>
+  <si>
+    <t>09:26:37</t>
+  </si>
+  <si>
+    <t>上证综指开盘集合竞价上涨0.15%，至2673.07；深证成指下跌0.02%，报8355.00；创业板指下跌0.42%，报1428.26。</t>
+  </si>
+  <si>
+    <t>09:25:34</t>
+  </si>
+  <si>
+    <t>中国中铁A股复牌开盘跌3%，此前因重大资产重组停牌。</t>
+  </si>
+  <si>
+    <t>09:23:44</t>
+  </si>
+  <si>
+    <t>希玛眼科盘前下跌11%，为1月25日以来最大跌幅。</t>
+  </si>
+  <si>
+    <t>09:23:31</t>
+  </si>
+  <si>
+    <t>【江苏省委书记会见比亚迪董事长王传福：合力打造城市综合交通体系示范】日前江苏省委书记、省人大常委会主任娄勤俭在南京会见了比亚迪股份有限公司董事长兼总裁王传福一行，并表示希望比亚迪公司在轨道交通、新能源汽车等领域在江苏有更多布局、更大投资、更好发展，特别是与淮安在深化合作的基础上进行综合交通体系的规划建设试点，做出标准示范，走在行业前列。（中国江苏网）</t>
+  </si>
+  <si>
+    <t>09:22:38</t>
+  </si>
+  <si>
+    <t>华润燃气高开9.8%，此前公布中期业绩。</t>
+  </si>
+  <si>
+    <t>09:20:57</t>
+  </si>
+  <si>
+    <t>香港恒生指数高开0.2%，报27273.78点。</t>
+  </si>
+  <si>
+    <t>09:15:50</t>
+  </si>
+  <si>
+    <t>【央行今日净投放1200亿元，连续第三日净投放】中国央行今日开展1200亿元7天逆回购操作，今日无逆回购到期，为连续第三个交易日实现净投放。</t>
+  </si>
+  <si>
+    <t>09:15:19</t>
+  </si>
+  <si>
+    <t>美元指数动能停滞，人民币中间价报6.8718，上一交易日中间价报 6.8894，在岸人民币上一交易日收报6.8815。</t>
+  </si>
+  <si>
+    <t>09:15:17</t>
+  </si>
+  <si>
+    <t>中国1天回购利率下跌1.48个基点，报2.5634%；中国7天回购利率上涨0.20个基点，报2.6500%。</t>
+  </si>
+  <si>
+    <t>09:13:07</t>
+  </si>
+  <si>
+    <t>【海航洽售邻近特朗普大厦的曼哈顿大楼】海航集团正与潜在买家洽谈出售该公司位于纽约曼哈顿特朗普大厦附近的一栋大楼，美国政府此前要求海航出售这处地产。据知情人士透露，纽约地产开发商B&amp;L Management Co.出价4.52亿美元收购这栋大楼。如果海航接受这一出价，将是小幅赔本出售。2016年，在特朗普当选美国总统之前，海航收购了这栋21层大楼的90%股份，交易对大楼估值4.63亿美元。知情人士称，双方尚未签约，谈判也可能破裂。（华尔街日报）</t>
+  </si>
+  <si>
+    <t>09:05:57</t>
+  </si>
+  <si>
+    <t>【长城电工：高铁、军工、核电等方面有少量订单】长城电工(600192)8月20日在互动平台回复投资者提问时称，公司目前在高铁、军工、核电等方面有订单，但订单量较小，公司目前也在积极开拓这方面市场，另外公司正在与部分央企开展市场合作。</t>
   </si>
 </sst>
 </file>
@@ -591,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,193 +725,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/study_case/data/7x24.xlsx
+++ b/study_case/data/7x24.xlsx
@@ -23,124 +23,124 @@
     <t>Content</t>
   </si>
   <si>
-    <t>09:43:54</t>
-  </si>
-  <si>
-    <t>券商板块异动拉升，西部证券大涨5%，南京证券、招商证券、中国银河、山西证券、东兴证券等个股均有拉升表现。</t>
-  </si>
-  <si>
-    <t>09:42:09</t>
-  </si>
-  <si>
-    <t>华润系集体上涨，华润燃气大涨近10%， 华润啤酒涨逾3%，华润电力涨2%。</t>
-  </si>
-  <si>
-    <t>09:36:10</t>
-  </si>
-  <si>
-    <t>新股开板：捷佳伟创打开一字涨停。</t>
-  </si>
-  <si>
-    <t>09:35:47</t>
-  </si>
-  <si>
-    <t>在岸人民币兑美元上涨0.29%，至6.8665。</t>
-  </si>
-  <si>
-    <t>09:35:00</t>
-  </si>
-  <si>
-    <t>【“希望白宫认识到中国市场的重要性”—伊利诺伊州各界人士对美国政府发动贸易战深表忧虑】位于伊利诺伊州的芝加哥是美国第三大城市，也是美国中西部地区的经济中心，以波音、麦当劳为代表的一批全球知名企业将总部设在此地。连日来，记者就中美贸易争端问题在芝加哥进行实地采访，切实感受到了当地各界人士对美国政府单方面挑起和升级贸易战的忧虑与不满。波音高级副总裁墨非表示，波音高度关注美中两国间的贸易争端，“我们正在积极同美国政府沟通，希望白宫认识到中国市场的重要性。”（人民日报）</t>
-  </si>
-  <si>
-    <t>09:31:36</t>
-  </si>
-  <si>
-    <t>【澳门金融机构分销认购50亿元粤港澳大湾区债券】工银澳门、澳门国际银行、中银澳门等澳门金融机构通过境内工商银行、中国银行、农业银行、建设银行，以结算代理模式分销认购了8月16日发行的粤港澳大湾区土地储备专项债券50亿元。这是首次由承销团成员将地方债分销给境外机构，也是境外机构首次参与地方债一级市场，实现了粤澳两地金融合作创新，极大促进了地方债投资主体多元化。（21）</t>
-  </si>
-  <si>
-    <t>09:31:22</t>
-  </si>
-  <si>
-    <t>【生鲜食材消费升级 中国冷链物流产业“热”起来 】年以来我国的冷链物流产业迅速发展。大笔资本涌入，布局从冷链仓库、干线运输到城市末端配送的各个环节，为消费升级和生鲜电商提供“保鲜”方案。 根据相关机构统计，目前我国的冷链物流市场年复合增速超过20%，预计到2020年底将达到约4700亿元的规模。中国物流与采购联合会秘书长崔忠付说，我国一方面要强化冷链基础设施的建设，另一方面要逐步建立冷链物流标准体系。特别是在食品冷链物流方面，形成行业准入门槛，提升行业运作水平。 （新华社）</t>
-  </si>
-  <si>
-    <t>09:28:36</t>
-  </si>
-  <si>
-    <t>住房租赁板块开盘大涨，市北高新涨停，东易日盛涨9%，三六五网、我爱我家、世联行纷纷大涨。</t>
-  </si>
-  <si>
-    <t>09:27:15</t>
-  </si>
-  <si>
-    <t>香港恒生指数高开0.22%，科技、电讯板块领涨。恒指成分股中，中国联通、华润电力高开超3%，腾讯控股、蒙牛乳业涨近2%；猪肉股万洲国际低开2.6%。</t>
-  </si>
-  <si>
-    <t>09:26:37</t>
-  </si>
-  <si>
-    <t>上证综指开盘集合竞价上涨0.15%，至2673.07；深证成指下跌0.02%，报8355.00；创业板指下跌0.42%，报1428.26。</t>
-  </si>
-  <si>
-    <t>09:25:34</t>
-  </si>
-  <si>
-    <t>中国中铁A股复牌开盘跌3%，此前因重大资产重组停牌。</t>
-  </si>
-  <si>
-    <t>09:23:44</t>
-  </si>
-  <si>
-    <t>希玛眼科盘前下跌11%，为1月25日以来最大跌幅。</t>
-  </si>
-  <si>
-    <t>09:23:31</t>
-  </si>
-  <si>
-    <t>【江苏省委书记会见比亚迪董事长王传福：合力打造城市综合交通体系示范】日前江苏省委书记、省人大常委会主任娄勤俭在南京会见了比亚迪股份有限公司董事长兼总裁王传福一行，并表示希望比亚迪公司在轨道交通、新能源汽车等领域在江苏有更多布局、更大投资、更好发展，特别是与淮安在深化合作的基础上进行综合交通体系的规划建设试点，做出标准示范，走在行业前列。（中国江苏网）</t>
-  </si>
-  <si>
-    <t>09:22:38</t>
-  </si>
-  <si>
-    <t>华润燃气高开9.8%，此前公布中期业绩。</t>
-  </si>
-  <si>
-    <t>09:20:57</t>
-  </si>
-  <si>
-    <t>香港恒生指数高开0.2%，报27273.78点。</t>
-  </si>
-  <si>
-    <t>09:15:50</t>
-  </si>
-  <si>
-    <t>【央行今日净投放1200亿元，连续第三日净投放】中国央行今日开展1200亿元7天逆回购操作，今日无逆回购到期，为连续第三个交易日实现净投放。</t>
-  </si>
-  <si>
-    <t>09:15:19</t>
-  </si>
-  <si>
-    <t>美元指数动能停滞，人民币中间价报6.8718，上一交易日中间价报 6.8894，在岸人民币上一交易日收报6.8815。</t>
-  </si>
-  <si>
-    <t>09:15:17</t>
-  </si>
-  <si>
-    <t>中国1天回购利率下跌1.48个基点，报2.5634%；中国7天回购利率上涨0.20个基点，报2.6500%。</t>
-  </si>
-  <si>
-    <t>09:13:07</t>
-  </si>
-  <si>
-    <t>【海航洽售邻近特朗普大厦的曼哈顿大楼】海航集团正与潜在买家洽谈出售该公司位于纽约曼哈顿特朗普大厦附近的一栋大楼，美国政府此前要求海航出售这处地产。据知情人士透露，纽约地产开发商B&amp;L Management Co.出价4.52亿美元收购这栋大楼。如果海航接受这一出价，将是小幅赔本出售。2016年，在特朗普当选美国总统之前，海航收购了这栋21层大楼的90%股份，交易对大楼估值4.63亿美元。知情人士称，双方尚未签约，谈判也可能破裂。（华尔街日报）</t>
-  </si>
-  <si>
-    <t>09:05:57</t>
-  </si>
-  <si>
-    <t>【长城电工：高铁、军工、核电等方面有少量订单】长城电工(600192)8月20日在互动平台回复投资者提问时称，公司目前在高铁、军工、核电等方面有订单，但订单量较小，公司目前也在积极开拓这方面市场，另外公司正在与部分央企开展市场合作。</t>
+    <t>14:17:28</t>
+  </si>
+  <si>
+    <t>海底捞跌破17.8港元发行价，此前一度涨10%。</t>
+  </si>
+  <si>
+    <t>14:08:59</t>
+  </si>
+  <si>
+    <t>【金卡智能：大中型城市的物联网表需求是核心增长来源】金卡智能近日接受机构调研时介绍，公司目前在华东、华北、华中等地区市场份额较高，而大中型城市对物联网表特别是NB表的需求将是公司核心增长来源。</t>
+  </si>
+  <si>
+    <t>14:03:03</t>
+  </si>
+  <si>
+    <t>物流板块午后持续走强，欧浦智网率先封板，随后万林股份也强势涨停，音飞储存、东方嘉盛、飞力达纷纷跟涨。</t>
+  </si>
+  <si>
+    <t>14:00:42</t>
+  </si>
+  <si>
+    <t>日本日经225指数收涨0.4%，报24033.79点；日股东证指数收盘几无变动，报1821.67点。</t>
+  </si>
+  <si>
+    <t>13:58:30</t>
+  </si>
+  <si>
+    <t>【海底捞创始人张勇：海底捞的海外规模必然会超过本土】9月26日海底捞香港上市，海底捞创始人张勇表示，他的目标是将海底捞开遍全球；东西方饮食文化的不同是一个挑战，然而伴随中国文化崛起，会有越来越多人想了解和尝试中国饮食，中国餐饮企业“走出去”正逢其时。</t>
+  </si>
+  <si>
+    <t>13:57:29</t>
+  </si>
+  <si>
+    <t>【360金融20%股权挂牌售卖 转让方为中财金控、中财资本】9月26日，记者从上海联合产权交易所获悉，共青城中财奇虎金控互联网产业投资中心(有限合伙)8000万元有限合伙份额挂牌转让，转让底价1.35亿元。资料显示，上述份额对应的股权比例为20%，分别来自中财金控投资有限公司和中财荃兴资本管理有限公司。（新京报）</t>
+  </si>
+  <si>
+    <t>13:54:25</t>
+  </si>
+  <si>
+    <t>【财政部：1-8月国企利润总额23031.9亿元 同比增长20.7%】财政部公布，1-8月，国有企业营业总收入370034.7亿元，同比增长10.3%。国有企业利润总额23031.9亿元，增长20.7%。钢铁、石油石化、有色、煤炭等行业利润同比增幅较高，均高于收入增长幅度。 8月末，国有企业资产负债率64.9%，降低0.5个百分点。</t>
+  </si>
+  <si>
+    <t>13:51:01</t>
+  </si>
+  <si>
+    <t>【美国加州继续加码电动汽车 欲将每辆车补贴增至4500美元】美国加州本周将举行听证会，讨论为每辆纯电动汽车提供的补贴从目前的2500美元增加至4500美元。目前美国联邦政府为每辆售出的电动汽车提供7500美元的税收抵免优惠。但只要车企的电动汽车总销量达到20万辆，这一补贴额度就会逐级减少。</t>
+  </si>
+  <si>
+    <t>13:49:07</t>
+  </si>
+  <si>
+    <t>【中兴通讯联合中国联通网研院完成5G承载关键功能验证】近日，中兴通讯联合中国联通网络技术研究院在南京完成5G IPRAN承载技术试验室测试，验证了5G承载系列关键功能，为5G承载商用部署做好了技术准备。本次测试为5G承载网络切片功能在现网中部署做出了重要技术验证和经验积累，为后续5G承载网络部署提供了重要保障。</t>
+  </si>
+  <si>
+    <t>13:46:23</t>
+  </si>
+  <si>
+    <t>【菜鸟发布“物流天眼”系统，6大快递公司已接入为双11提速】今日，菜鸟宣布与快递合作伙伴一道，正式上线视频云监控系统。这意味着全国各类物流场站内的百万个摄像头开启“物流天眼”，实现对场站的智能管理。德邦、中通、圆通、申通、百世、韵达等快递公司当天与菜鸟签约，正式接入这个基于物流IoT的智能系统。这套系统将在今年双11发挥作用。</t>
+  </si>
+  <si>
+    <t>13:45:37</t>
+  </si>
+  <si>
+    <t>国债期货午后持续拉涨，10年期国债期货主力合约涨幅达0.2%。</t>
+  </si>
+  <si>
+    <t>13:44:14</t>
+  </si>
+  <si>
+    <t>【欧比特：公司正在研制AI芯片，适用于航空航天计算机平台等领域】欧比特近日在互动平台上介绍，公司正在研制的基于人工智能技术的AI芯片，主要适用于航空航天计算机平台的高速数据处理，星上智能化信息提取，自动进行地物识别等。</t>
+  </si>
+  <si>
+    <t>13:43:58</t>
+  </si>
+  <si>
+    <t>中国主权财富基金的资产配置负责人据悉辞职。（彭博）</t>
+  </si>
+  <si>
+    <t>13:41:45</t>
+  </si>
+  <si>
+    <t>【美团点评跌幅扩大至近5% 海底捞涨幅缩窄至不足2%】美团点评股价午后继续走低，截至发稿跌4.86%，报65.65港元。公司发行价为69港元。此外，海底捞今日在香港上市，股价涨幅一度超过10%，截至发稿，涨幅缩窄至1.69%。</t>
+  </si>
+  <si>
+    <t>13:41:01</t>
+  </si>
+  <si>
+    <t>【中意两国签署食品安全备忘录】9月25日，第六届中国-意大利食品安全对话在成都举行。会上，国家市场监督管理总局与意大利卫生部签署了合作谅解备忘录，双方将在食品安全领域加强经验交流，推动制定国际标准，推进食品安全领域项目合作。意方表示，四川与意大利在食品安全领域合作基础广泛，随着备忘录的签署，未来将推动项目与四川对接和落地。（四川日报）</t>
+  </si>
+  <si>
+    <t>13:40:48</t>
+  </si>
+  <si>
+    <t>【生态环境部就侵占破坏自然保护区问题约谈8市（州、区）政府】9月26日，生态环境部就侵占破坏自然保护区问题约谈8市（州、区）政府。生态环境部近期针对自然保护区生态环境问题组织系列督查检查，发现辽宁辽河口等7个自然保护区仍然存在大量工矿、旅游、养殖、房地产等违建项目，侵占破坏保护区，损害生态功能；相关地方党委、政府和有关部门监督管理不到位，甚至违规审批、虚报情况、敷衍整改，自然保护区违规开发建设活动未得到有效遏制。</t>
+  </si>
+  <si>
+    <t>13:38:41</t>
+  </si>
+  <si>
+    <t>【首届银行保险业国际论坛27日在京开幕】据悉，以“新时代金融扩大开放与银行保险业改革发展之路”为主题的2018中国银行保险业国际高峰论坛将于9月27日至28日在北京银行保险产业园举办，拟出席的十余位知名经济学家包括北京大学光华管理学院名誉院长厉以宁、北京大学国家发展研究院名誉院长林毅夫等。（新京报）</t>
+  </si>
+  <si>
+    <t>13:37:04</t>
+  </si>
+  <si>
+    <t>意大利副总理/内政部长迪马尤希望2019年预算赤字率2.4%至2.5%。（意大利新闻报）</t>
+  </si>
+  <si>
+    <t>13:34:27</t>
+  </si>
+  <si>
+    <t>【北京市住建委：公租房转租行为再次被严肃处理】近日，有媒体报道石景山区京原家园、朝阳区双桥家园和马泉营家园等公租房项目存在通过中介转租和租户擅自将公租房改为日租房等行为。针对以上两户违规使用公租房家庭，东城区和石景山区住房保障管理部门，正在依规取消保障资格，且5年内不得再次申请保障性住房，计入不良信用档案。对转租行为涉及的中介公司，朝阳区和石景山区住建房管部门正在调查取证，并将依法依规严肃处理。（中国网）</t>
+  </si>
+  <si>
+    <t>13:32:09</t>
+  </si>
+  <si>
+    <t>【陕西省将确保2021年实现汽车年产能300万辆目标】9月25日，陕西省政府召开2018年第19场政策例行吹风会。会议邀请相关部门负责人和行业专家学者解读《陕西省政府关于印发推动汽车产业加快发展支持措施的通知》，明确了打造汽车支柱产业是陕西省着眼高质量发展实施的战略部署。陕西省各相关部门将多措并举，确保2021年顺利实现全省汽车年产能300万辆的目标。</t>
   </si>
 </sst>
 </file>

--- a/study_case/data/7x24.xlsx
+++ b/study_case/data/7x24.xlsx
@@ -23,124 +23,124 @@
     <t>Content</t>
   </si>
   <si>
-    <t>14:17:28</t>
-  </si>
-  <si>
-    <t>海底捞跌破17.8港元发行价，此前一度涨10%。</t>
-  </si>
-  <si>
-    <t>14:08:59</t>
-  </si>
-  <si>
-    <t>【金卡智能：大中型城市的物联网表需求是核心增长来源】金卡智能近日接受机构调研时介绍，公司目前在华东、华北、华中等地区市场份额较高，而大中型城市对物联网表特别是NB表的需求将是公司核心增长来源。</t>
-  </si>
-  <si>
-    <t>14:03:03</t>
-  </si>
-  <si>
-    <t>物流板块午后持续走强，欧浦智网率先封板，随后万林股份也强势涨停，音飞储存、东方嘉盛、飞力达纷纷跟涨。</t>
-  </si>
-  <si>
-    <t>14:00:42</t>
-  </si>
-  <si>
-    <t>日本日经225指数收涨0.4%，报24033.79点；日股东证指数收盘几无变动，报1821.67点。</t>
-  </si>
-  <si>
-    <t>13:58:30</t>
-  </si>
-  <si>
-    <t>【海底捞创始人张勇：海底捞的海外规模必然会超过本土】9月26日海底捞香港上市，海底捞创始人张勇表示，他的目标是将海底捞开遍全球；东西方饮食文化的不同是一个挑战，然而伴随中国文化崛起，会有越来越多人想了解和尝试中国饮食，中国餐饮企业“走出去”正逢其时。</t>
-  </si>
-  <si>
-    <t>13:57:29</t>
-  </si>
-  <si>
-    <t>【360金融20%股权挂牌售卖 转让方为中财金控、中财资本】9月26日，记者从上海联合产权交易所获悉，共青城中财奇虎金控互联网产业投资中心(有限合伙)8000万元有限合伙份额挂牌转让，转让底价1.35亿元。资料显示，上述份额对应的股权比例为20%，分别来自中财金控投资有限公司和中财荃兴资本管理有限公司。（新京报）</t>
-  </si>
-  <si>
-    <t>13:54:25</t>
-  </si>
-  <si>
-    <t>【财政部：1-8月国企利润总额23031.9亿元 同比增长20.7%】财政部公布，1-8月，国有企业营业总收入370034.7亿元，同比增长10.3%。国有企业利润总额23031.9亿元，增长20.7%。钢铁、石油石化、有色、煤炭等行业利润同比增幅较高，均高于收入增长幅度。 8月末，国有企业资产负债率64.9%，降低0.5个百分点。</t>
-  </si>
-  <si>
-    <t>13:51:01</t>
-  </si>
-  <si>
-    <t>【美国加州继续加码电动汽车 欲将每辆车补贴增至4500美元】美国加州本周将举行听证会，讨论为每辆纯电动汽车提供的补贴从目前的2500美元增加至4500美元。目前美国联邦政府为每辆售出的电动汽车提供7500美元的税收抵免优惠。但只要车企的电动汽车总销量达到20万辆，这一补贴额度就会逐级减少。</t>
-  </si>
-  <si>
-    <t>13:49:07</t>
-  </si>
-  <si>
-    <t>【中兴通讯联合中国联通网研院完成5G承载关键功能验证】近日，中兴通讯联合中国联通网络技术研究院在南京完成5G IPRAN承载技术试验室测试，验证了5G承载系列关键功能，为5G承载商用部署做好了技术准备。本次测试为5G承载网络切片功能在现网中部署做出了重要技术验证和经验积累，为后续5G承载网络部署提供了重要保障。</t>
-  </si>
-  <si>
-    <t>13:46:23</t>
-  </si>
-  <si>
-    <t>【菜鸟发布“物流天眼”系统，6大快递公司已接入为双11提速】今日，菜鸟宣布与快递合作伙伴一道，正式上线视频云监控系统。这意味着全国各类物流场站内的百万个摄像头开启“物流天眼”，实现对场站的智能管理。德邦、中通、圆通、申通、百世、韵达等快递公司当天与菜鸟签约，正式接入这个基于物流IoT的智能系统。这套系统将在今年双11发挥作用。</t>
-  </si>
-  <si>
-    <t>13:45:37</t>
-  </si>
-  <si>
-    <t>国债期货午后持续拉涨，10年期国债期货主力合约涨幅达0.2%。</t>
-  </si>
-  <si>
-    <t>13:44:14</t>
-  </si>
-  <si>
-    <t>【欧比特：公司正在研制AI芯片，适用于航空航天计算机平台等领域】欧比特近日在互动平台上介绍，公司正在研制的基于人工智能技术的AI芯片，主要适用于航空航天计算机平台的高速数据处理，星上智能化信息提取，自动进行地物识别等。</t>
-  </si>
-  <si>
-    <t>13:43:58</t>
-  </si>
-  <si>
-    <t>中国主权财富基金的资产配置负责人据悉辞职。（彭博）</t>
-  </si>
-  <si>
-    <t>13:41:45</t>
-  </si>
-  <si>
-    <t>【美团点评跌幅扩大至近5% 海底捞涨幅缩窄至不足2%】美团点评股价午后继续走低，截至发稿跌4.86%，报65.65港元。公司发行价为69港元。此外，海底捞今日在香港上市，股价涨幅一度超过10%，截至发稿，涨幅缩窄至1.69%。</t>
-  </si>
-  <si>
-    <t>13:41:01</t>
-  </si>
-  <si>
-    <t>【中意两国签署食品安全备忘录】9月25日，第六届中国-意大利食品安全对话在成都举行。会上，国家市场监督管理总局与意大利卫生部签署了合作谅解备忘录，双方将在食品安全领域加强经验交流，推动制定国际标准，推进食品安全领域项目合作。意方表示，四川与意大利在食品安全领域合作基础广泛，随着备忘录的签署，未来将推动项目与四川对接和落地。（四川日报）</t>
-  </si>
-  <si>
-    <t>13:40:48</t>
-  </si>
-  <si>
-    <t>【生态环境部就侵占破坏自然保护区问题约谈8市（州、区）政府】9月26日，生态环境部就侵占破坏自然保护区问题约谈8市（州、区）政府。生态环境部近期针对自然保护区生态环境问题组织系列督查检查，发现辽宁辽河口等7个自然保护区仍然存在大量工矿、旅游、养殖、房地产等违建项目，侵占破坏保护区，损害生态功能；相关地方党委、政府和有关部门监督管理不到位，甚至违规审批、虚报情况、敷衍整改，自然保护区违规开发建设活动未得到有效遏制。</t>
-  </si>
-  <si>
-    <t>13:38:41</t>
-  </si>
-  <si>
-    <t>【首届银行保险业国际论坛27日在京开幕】据悉，以“新时代金融扩大开放与银行保险业改革发展之路”为主题的2018中国银行保险业国际高峰论坛将于9月27日至28日在北京银行保险产业园举办，拟出席的十余位知名经济学家包括北京大学光华管理学院名誉院长厉以宁、北京大学国家发展研究院名誉院长林毅夫等。（新京报）</t>
-  </si>
-  <si>
-    <t>13:37:04</t>
-  </si>
-  <si>
-    <t>意大利副总理/内政部长迪马尤希望2019年预算赤字率2.4%至2.5%。（意大利新闻报）</t>
-  </si>
-  <si>
-    <t>13:34:27</t>
-  </si>
-  <si>
-    <t>【北京市住建委：公租房转租行为再次被严肃处理】近日，有媒体报道石景山区京原家园、朝阳区双桥家园和马泉营家园等公租房项目存在通过中介转租和租户擅自将公租房改为日租房等行为。针对以上两户违规使用公租房家庭，东城区和石景山区住房保障管理部门，正在依规取消保障资格，且5年内不得再次申请保障性住房，计入不良信用档案。对转租行为涉及的中介公司，朝阳区和石景山区住建房管部门正在调查取证，并将依法依规严肃处理。（中国网）</t>
-  </si>
-  <si>
-    <t>13:32:09</t>
-  </si>
-  <si>
-    <t>【陕西省将确保2021年实现汽车年产能300万辆目标】9月25日，陕西省政府召开2018年第19场政策例行吹风会。会议邀请相关部门负责人和行业专家学者解读《陕西省政府关于印发推动汽车产业加快发展支持措施的通知》，明确了打造汽车支柱产业是陕西省着眼高质量发展实施的战略部署。陕西省各相关部门将多措并举，确保2021年顺利实现全省汽车年产能300万辆的目标。</t>
+    <t>14:31:41</t>
+  </si>
+  <si>
+    <t>【深圳市投资控股公司将转型为科技金融投资控股平台】近日，深圳市政府批复同意把深圳市投资控股有限公司改造成为科技金融投资控股平台的方案，投控公司将转型成为以支持科技和产业创新为战略目标的深圳市级科技金控平台。未来，投控公司将在进一步整合市属国有金融资源的基础上，通过并购和新设等方式重点拓展商业银行（转型科技银行）、科技金融租赁、科技保险、资产管理等牌照资源，为科技创新型企业的孵化、成长、扩张、上市全过程提供全周期、全要素的科技金融服务。</t>
+  </si>
+  <si>
+    <t>14:31:28</t>
+  </si>
+  <si>
+    <t>【北京海淀召开政、银、企联合座谈会：将出台措施化解上市民企股权质押问题】参与此次座谈会的有13家民营上市公司，其中包括神州高铁、启明星辰、碧水源、飞利信、邦讯技术、信威集团、汉邦高科、千方科技、大北农、引力传媒、前景园林 、拉卡拉（蓝色光标股东方），此外还有华夏银行、邮储银行、北京银行、工商银行、民生银行、中关村银行6家银行，中关村并购母基金、南方工业资产管理有限责任公司、北京国际信托有限公司3家投资机构参加。（经济观察报）</t>
+  </si>
+  <si>
+    <t>14:30:44</t>
+  </si>
+  <si>
+    <t>沪深300指数涨幅扩大至3%。</t>
+  </si>
+  <si>
+    <t>14:27:59</t>
+  </si>
+  <si>
+    <t>中国消费者协会就称苹果公司不应推卸手机网上支付安全的责任。</t>
+  </si>
+  <si>
+    <t>14:26:38</t>
+  </si>
+  <si>
+    <t>欧盟首席脱欧谈判官Barnier：达成脱欧协议是有可能的，但也是困难的。英国政治“非常复杂”。爱尔兰边境问题可能导致脱欧谈判失败。</t>
+  </si>
+  <si>
+    <t>14:24:07</t>
+  </si>
+  <si>
+    <t>有色钒板块反抽，龙头攀钢钒钛强势冲板，明星电力迅速跟涨，国星光电小幅走强。</t>
+  </si>
+  <si>
+    <t>14:20:13</t>
+  </si>
+  <si>
+    <t>【地方国资主动驰援上市民企：今年已入股29家，非统一部署】就在广东省深圳市拿出驰援上市公司的计划之后，全国其他地区也被曝出拟推出驰援方案，如北京市海淀区、广东省广州市、广东省东莞市、广东省佛山市顺德区。多地的政策驰援路线渐渐明晰，从上市公司密集发布的公告中或可见一斑。根据Wind公告梳理，不完全统计显示，2018年以来，山东、北京、深圳、河南等17个省市的地方国资已出手“拿下”共29家民营上市公司股权。（澎湃新闻）</t>
+  </si>
+  <si>
+    <t>14:14:59</t>
+  </si>
+  <si>
+    <t>【理财子公司征求意见稿发布 多家私募称已与银行沟通后续合作事宜】中国银保监会发布《商业银行理财子公司管理办法（征求意见稿）》，规定理财子公司发行的私募理财产品的合作机构可为合规并符合条件的私募基金管理人。对此，多家私募基金表示，理财子公司征求意见稿认可了私募基金与银行合作中的投资顾问地位，已经与银行就理财子公司方面的合作进行沟通。（中证网）</t>
+  </si>
+  <si>
+    <t>14:06:30</t>
+  </si>
+  <si>
+    <t>意大利10年期国债收益率升至3.74%，为2014年2月以来高位。</t>
+  </si>
+  <si>
+    <t>14:06:09</t>
+  </si>
+  <si>
+    <t>【工信部信软司：推动工业互联网平台试验测试项目有序实施】第八届中国能源企业信息化大会19日召开。工信部信软司巡视员李颖出席大会并致辞称，下一步，工信部将强化工业互联网创新发展工程项目跟踪监测，推动工业互联网平台试验测试项目有序实施。在地方普遍建设平台的基础上，分批遴选10家跨行业、跨领域工业互联网平台。遴选一批工业互联网平台应用示范项目，积极培育平台应用新模式、新业态。</t>
+  </si>
+  <si>
+    <t>14:04:28</t>
+  </si>
+  <si>
+    <t>大金融板块持续拉升，券商东方财富大涨7%，锦龙股份、财通证券、光大证券、海通证券纷纷大涨，安信信托冲击涨停，中国太保大涨6%。</t>
+  </si>
+  <si>
+    <t>14:02:08</t>
+  </si>
+  <si>
+    <t>日经225指数收盘跌0.6%，报22532.08点。</t>
+  </si>
+  <si>
+    <t>14:01:19</t>
+  </si>
+  <si>
+    <t>受A股带动，恒指涨1%，恒生中国企业指数涨1.5%。</t>
+  </si>
+  <si>
+    <t>13:58:46</t>
+  </si>
+  <si>
+    <t>【中消协发文喊话苹果：经营者须保障消费者支付安全】近来，使用苹果手机的消费者网上财产安全权被侵害，造成重大财产损失，凸显了网上支付安全存在严重隐患。对此，中国消费者协会19日在官网发文指出，苹果公司不应推卸责任，淡化自身存在的安全问题，转移消费者关注点。要求相关经营者必须明确自身法律责任，切实保障消费者支付安全。</t>
+  </si>
+  <si>
+    <t>13:58:10</t>
+  </si>
+  <si>
+    <t>A股午后直线拉升，沪指涨2%，创业板大涨近3.5%，深成指涨超2%。除ST等少数板块，两市大多数板块飘红，科技股、券商股等涨幅居前。</t>
+  </si>
+  <si>
+    <t>13:57:56</t>
+  </si>
+  <si>
+    <t>午后两市延续午前的走势，题材权重集体走强，尤其是创蓝筹大幅飙升，带动创业板大涨3%，成功站上五日线，盘面上看，个股普涨，连续的杀跌使得低位个股备受低风险资金的青睐，总体两市反弹态势良好。板块方面疫苗、电子发票板块领涨，盘中军工（天海防务）异动拉升。炭黑、环氧丙烷板块领跌。</t>
+  </si>
+  <si>
+    <t>13:57:48</t>
+  </si>
+  <si>
+    <t>快讯：沪指涨2%，创业板涨3.4%。国产软件、券商、保险涨幅靠前。</t>
+  </si>
+  <si>
+    <t>13:54:22</t>
+  </si>
+  <si>
+    <t>【我国拟修法允许上市公司为“护盘”回购股份】上市公司回购股份早已得到监管政策允许，但现行《公司法》只规定了4种公司回购股份情形：减少股本、与持有公司股份的其他公司合并、股权激励、收购异议股东股份。未明确“护盘”是否可以作为合法事由。（21世纪经济报道）</t>
+  </si>
+  <si>
+    <t>13:45:43</t>
+  </si>
+  <si>
+    <t>金融股午后拉升，沪指涨近2%，创业板指涨超3%，中国太保大涨近7%，东方证券、新华保险、华泰证券、招商银行均涨超3%。</t>
+  </si>
+  <si>
+    <t>13:43:41</t>
+  </si>
+  <si>
+    <t>香港恒指跟随A股上涨，涨幅0.8%，恒生国企指数涨1.3%。</t>
   </si>
 </sst>
 </file>
